--- a/ApiXLS/upload/CrewFlights.xlsx
+++ b/ApiXLS/upload/CrewFlights.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vahid\source\repos\AirpocketServices\ApiXLS\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEPEHR\source\repos\AirpocketServices2024\ApiXLS\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873048CC-8934-4846-AE71-3CED4B1E459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -77,9 +78,6 @@
     <t>Flight Time Report</t>
   </si>
   <si>
-    <t>VARESH Airlines</t>
-  </si>
-  <si>
     <t>OffBlock</t>
   </si>
   <si>
@@ -96,12 +94,15 @@
   </si>
   <si>
     <t>B/T</t>
+  </si>
+  <si>
+    <t>FLYPERSIA Airlines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,12 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -216,22 +214,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -239,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,349 +259,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>441960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="68580"/>
-          <a:ext cx="670560" cy="906780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>708041</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>441960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="129540" y="68580"/>
-          <a:ext cx="692801" cy="906780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>692801</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="68580"/>
-          <a:ext cx="692801" cy="883920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685181</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>403860</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="106680" y="68580"/>
-          <a:ext cx="692801" cy="868680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>692801</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="68580"/>
-          <a:ext cx="692801" cy="883920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>692801</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="68580"/>
-          <a:ext cx="692801" cy="891540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>692801</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>434340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="68580"/>
-          <a:ext cx="692801" cy="899160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,65 +523,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.46484375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.46484375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.796875" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.46484375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1328125" style="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="J1" s="4"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="2" spans="2:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="J1" s="3"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="2:21" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="J2" s="4"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+      <c r="J2" s="3"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -964,34 +619,34 @@
         <v>3</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1008,6 +663,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="C1:D1"/>
@@ -1015,14 +677,7 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="U3:U4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
@@ -1032,70 +687,69 @@
     <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.46484375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.46484375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.796875" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.46484375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1328125" style="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="J1" s="4"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="2" spans="2:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="J1" s="3"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="2:21" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="J2" s="4"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+      <c r="J2" s="3"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -1133,34 +787,34 @@
         <v>3</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1177,18 +831,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="C2:D2"/>
@@ -1199,72 +841,83 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.46484375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.46484375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.796875" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.46484375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1328125" style="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="J1" s="4"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="2" spans="2:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="J1" s="3"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="2:21" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="J2" s="4"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+      <c r="J2" s="3"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -1302,34 +955,34 @@
         <v>3</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1346,18 +999,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="C2:D2"/>
@@ -1368,72 +1009,83 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.46484375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.46484375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.796875" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.46484375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1328125" style="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="J1" s="4"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="2" spans="2:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="J1" s="3"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="2:21" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="J2" s="4"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+      <c r="J2" s="3"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -1471,34 +1123,34 @@
         <v>3</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1515,18 +1167,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="C2:D2"/>
@@ -1537,72 +1177,83 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.46484375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.46484375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.796875" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.46484375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1328125" style="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="J1" s="4"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="2" spans="2:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="J1" s="3"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="2:21" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="J2" s="4"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+      <c r="J2" s="3"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -1640,34 +1291,34 @@
         <v>3</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1684,18 +1335,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="C2:D2"/>
@@ -1706,72 +1345,83 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.46484375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.46484375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.796875" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.46484375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1328125" style="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="J1" s="4"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="2" spans="2:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="J1" s="3"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="2:21" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="J2" s="4"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+      <c r="J2" s="3"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -1809,34 +1459,34 @@
         <v>3</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1853,18 +1503,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="C2:D2"/>
@@ -1875,72 +1513,83 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.46484375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.46484375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.796875" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.46484375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1328125" style="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="J1" s="4"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="2" spans="2:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="J1" s="3"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="2:21" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="J2" s="4"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+      <c r="J2" s="3"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -1978,34 +1627,34 @@
         <v>3</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -2022,18 +1671,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="C2:D2"/>
@@ -2044,8 +1681,19 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>